--- a/steamcase/user/userViewMediacase.xlsx
+++ b/steamcase/user/userViewMediacase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B28451E6-3A27-4CF1-8095-BDEC49AA7600}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D96FA173-B17E-47BB-A4F9-805EA1D2EACC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -478,7 +478,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -487,7 +487,7 @@
     <col min="2" max="2" width="22.375" customWidth="1"/>
     <col min="3" max="3" width="19.125" customWidth="1"/>
     <col min="4" max="4" width="12.875" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="25.75" customWidth="1"/>
     <col min="6" max="6" width="70.125" customWidth="1"/>
     <col min="7" max="7" width="29.625" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
